--- a/medicine/Mort/Cimetière_d'Etterbeek/Cimetière_d'Etterbeek.xlsx
+++ b/medicine/Mort/Cimetière_d'Etterbeek/Cimetière_d'Etterbeek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Etterbeek</t>
+          <t>Cimetière_d'Etterbeek</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Etterbeek est le cimetière de la commune bruxelloise d'Etterbeek situé dans la commune de Wezembeek-Oppem, en Brabant flamand, comme le cimetière de Woluwe-Saint-Lambert qu'il jouxte. 
 Il a succédé à l'ancien cimetière etterbeekois de 1897, désaffecté en 1966, sur l'emplacement duquel a été bâti le Parc Georges Henri, à Woluwe-Saint-Lambert.
-Dessiné par l'architecte L. Steinier, la première inhumation y a eu lieu le 3 novembre 1958[1].
+Dessiné par l'architecte L. Steinier, la première inhumation y a eu lieu le 3 novembre 1958.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Etterbeek</t>
+          <t>Cimetière_d'Etterbeek</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnalités enterrées au cimetière d'Etterbeek</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La liste ci-dessous est triée par ordre croissant de date de décès
 Omer Lepreux (1856-1927) : homme politique et banquier.
